--- a/ฟอร์มลงทะเบียนประชุม.xlsx
+++ b/ฟอร์มลงทะเบียนประชุม.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lecreuset365-my.sharepoint.com/personal/natthaphon_lueamsai_lecreuset_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtl90253\Desktop\New folder (4)\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF620035-0850-6F40-A0C4-0578C00C3B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801EA2FC-A129-413E-8177-C1B6D5C467A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C837C8E-F3CA-4695-BBFB-7099E6D607C6}"/>
+    <workbookView xWindow="6740" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{4C837C8E-F3CA-4695-BBFB-7099E6D607C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>ผู้เข้าร่วมประชุมหมู่บ้านแกรนด์วิลล่า วันอาทิตย์ ที่ 21 มค 2567</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>คุณ นาตยา เสนพนัสสัก</t>
+  </si>
+  <si>
+    <t>[OWNAGOWQ[NEG</t>
   </si>
 </sst>
 </file>
@@ -325,14 +328,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -340,14 +343,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -410,7 +413,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -426,9 +429,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีม Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -466,7 +469,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -572,7 +575,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -714,7 +717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -725,17 +728,17 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.61328125" customWidth="1"/>
-    <col min="2" max="2" width="37.84375" customWidth="1"/>
-    <col min="3" max="3" width="22.10546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -745,7 +748,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -756,21 +759,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C4" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -779,7 +784,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -788,7 +793,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -797,7 +802,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -806,7 +811,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -815,7 +820,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -824,7 +829,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -833,7 +838,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -842,7 +847,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -851,7 +856,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -860,7 +865,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -869,7 +874,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -878,7 +883,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -887,7 +892,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -896,7 +901,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -905,7 +910,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -914,7 +919,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -923,7 +928,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -932,7 +937,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -941,7 +946,7 @@
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -950,7 +955,7 @@
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -959,7 +964,7 @@
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -968,7 +973,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -977,7 +982,7 @@
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -986,7 +991,7 @@
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -995,7 +1000,7 @@
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
@@ -1004,7 +1009,7 @@
       </c>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -1013,7 +1018,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -1022,7 +1027,7 @@
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -1031,7 +1036,7 @@
       </c>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -1040,7 +1045,7 @@
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -1049,7 +1054,7 @@
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -1058,7 +1063,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -1067,7 +1072,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -1076,7 +1081,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
@@ -1085,7 +1090,7 @@
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
@@ -1094,7 +1099,7 @@
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>77</v>
       </c>
@@ -1103,7 +1108,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>79</v>
       </c>
@@ -1112,7 +1117,7 @@
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>81</v>
       </c>
@@ -1121,7 +1126,7 @@
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>83</v>
       </c>
@@ -1130,7 +1135,7 @@
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>85</v>
       </c>
@@ -1139,7 +1144,7 @@
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>87</v>
       </c>
@@ -1148,7 +1153,7 @@
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>89</v>
       </c>
@@ -1157,7 +1162,7 @@
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>91</v>
       </c>
@@ -1166,12 +1171,12 @@
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>

--- a/ฟอร์มลงทะเบียนประชุม.xlsx
+++ b/ฟอร์มลงทะเบียนประชุม.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtl90253\Desktop\New folder (4)\Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lecreuset365-my.sharepoint.com/personal/natthaphon_lueamsai_lecreuset_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801EA2FC-A129-413E-8177-C1B6D5C467A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF620035-0850-6F40-A0C4-0578C00C3B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{4C837C8E-F3CA-4695-BBFB-7099E6D607C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C837C8E-F3CA-4695-BBFB-7099E6D607C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>ผู้เข้าร่วมประชุมหมู่บ้านแกรนด์วิลล่า วันอาทิตย์ ที่ 21 มค 2567</t>
   </si>
@@ -315,9 +315,6 @@
   </si>
   <si>
     <t>คุณ นาตยา เสนพนัสสัก</t>
-  </si>
-  <si>
-    <t>[OWNAGOWQ[NEG</t>
   </si>
 </sst>
 </file>
@@ -328,14 +325,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -343,14 +340,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -413,7 +410,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,9 +426,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีม Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -469,7 +466,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -575,7 +572,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -717,7 +714,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -728,17 +725,17 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.61328125" customWidth="1"/>
+    <col min="2" max="2" width="37.84375" customWidth="1"/>
+    <col min="3" max="3" width="22.10546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -748,7 +745,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -759,23 +756,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -784,7 +779,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -793,7 +788,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -802,7 +797,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -811,7 +806,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -820,7 +815,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -829,7 +824,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -838,7 +833,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -847,7 +842,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -856,7 +851,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -865,7 +860,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -874,7 +869,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -883,7 +878,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -892,7 +887,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -901,7 +896,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -910,7 +905,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -919,7 +914,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -928,7 +923,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -937,7 +932,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -946,7 +941,7 @@
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -955,7 +950,7 @@
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -964,7 +959,7 @@
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -973,7 +968,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -982,7 +977,7 @@
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -991,7 +986,7 @@
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -1000,7 +995,7 @@
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
@@ -1009,7 +1004,7 @@
       </c>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -1018,7 +1013,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -1027,7 +1022,7 @@
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -1036,7 +1031,7 @@
       </c>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -1045,7 +1040,7 @@
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -1054,7 +1049,7 @@
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -1063,7 +1058,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -1072,7 +1067,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -1081,7 +1076,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
@@ -1090,7 +1085,7 @@
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
@@ -1099,7 +1094,7 @@
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>77</v>
       </c>
@@ -1108,7 +1103,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>79</v>
       </c>
@@ -1117,7 +1112,7 @@
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>81</v>
       </c>
@@ -1126,7 +1121,7 @@
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>83</v>
       </c>
@@ -1135,7 +1130,7 @@
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>85</v>
       </c>
@@ -1144,7 +1139,7 @@
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>87</v>
       </c>
@@ -1153,7 +1148,7 @@
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>89</v>
       </c>
@@ -1162,7 +1157,7 @@
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>91</v>
       </c>
@@ -1171,12 +1166,12 @@
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>

--- a/ฟอร์มลงทะเบียนประชุม.xlsx
+++ b/ฟอร์มลงทะเบียนประชุม.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lecreuset365-my.sharepoint.com/personal/natthaphon_lueamsai_lecreuset_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtl90253\Desktop\New folder (4)\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF620035-0850-6F40-A0C4-0578C00C3B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E7AB3F-606A-4F92-874B-28022C537DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C837C8E-F3CA-4695-BBFB-7099E6D607C6}"/>
+    <workbookView xWindow="6740" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{4C837C8E-F3CA-4695-BBFB-7099E6D607C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>ผู้เข้าร่วมประชุมหมู่บ้านแกรนด์วิลล่า วันอาทิตย์ ที่ 21 มค 2567</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>คุณ นาตยา เสนพนัสสัก</t>
+  </si>
+  <si>
+    <t>Onavo[qnsf</t>
   </si>
 </sst>
 </file>
@@ -325,14 +328,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -340,14 +343,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -410,7 +413,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -426,9 +429,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีม Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -466,7 +469,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -572,7 +575,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -714,7 +717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -725,17 +728,17 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.61328125" customWidth="1"/>
-    <col min="2" max="2" width="37.84375" customWidth="1"/>
-    <col min="3" max="3" width="22.10546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -745,7 +748,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -756,21 +759,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C4" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -779,7 +784,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -788,7 +793,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -797,7 +802,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -806,7 +811,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -815,7 +820,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -824,7 +829,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -833,7 +838,7 @@
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -842,7 +847,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -851,7 +856,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -860,7 +865,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -869,7 +874,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -878,7 +883,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -887,7 +892,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -896,7 +901,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -905,7 +910,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -914,7 +919,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -923,7 +928,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -932,7 +937,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -941,7 +946,7 @@
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -950,7 +955,7 @@
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -959,7 +964,7 @@
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -968,7 +973,7 @@
       </c>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -977,7 +982,7 @@
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -986,7 +991,7 @@
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -995,7 +1000,7 @@
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
@@ -1004,7 +1009,7 @@
       </c>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -1013,7 +1018,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -1022,7 +1027,7 @@
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -1031,7 +1036,7 @@
       </c>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -1040,7 +1045,7 @@
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -1049,7 +1054,7 @@
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -1058,7 +1063,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -1067,7 +1072,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -1076,7 +1081,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
@@ -1085,7 +1090,7 @@
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
@@ -1094,7 +1099,7 @@
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>77</v>
       </c>
@@ -1103,7 +1108,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>79</v>
       </c>
@@ -1112,7 +1117,7 @@
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>81</v>
       </c>
@@ -1121,7 +1126,7 @@
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>83</v>
       </c>
@@ -1130,7 +1135,7 @@
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>85</v>
       </c>
@@ -1139,7 +1144,7 @@
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>87</v>
       </c>
@@ -1148,7 +1153,7 @@
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>89</v>
       </c>
@@ -1157,7 +1162,7 @@
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>91</v>
       </c>
@@ -1166,12 +1171,12 @@
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
